--- a/features.xlsx
+++ b/features.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Major Project\Brain Tumor Detection\Brain-Tumor-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A7C442E8-2BB8-4269-95A2-F44BA1CD0941}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Tumor id</t>
   </si>
@@ -123,12 +124,18 @@
   </si>
   <si>
     <t>Malignant</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,12 +495,14 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,19 +519,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -538,19 +554,28 @@
         <v>214.86</v>
       </c>
       <c r="F2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G2">
+        <v>3777.6309999999999</v>
+      </c>
+      <c r="H2">
+        <v>61.462000000000003</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2">
+        <v>247.202</v>
+      </c>
+      <c r="N2">
         <v>3498</v>
       </c>
-      <c r="G2">
-        <v>247.202</v>
-      </c>
-      <c r="H2">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -567,19 +592,28 @@
         <v>148.208</v>
       </c>
       <c r="F3">
+        <v>0.153</v>
+      </c>
+      <c r="G3">
+        <v>2254.8409000000001</v>
+      </c>
+      <c r="H3">
+        <v>47.484999999999999</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>1638.02</v>
+      </c>
+      <c r="N3">
         <v>5465</v>
       </c>
-      <c r="G3">
-        <v>1638.02</v>
-      </c>
-      <c r="H3">
-        <v>0.153</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -596,19 +630,28 @@
         <v>177.32</v>
       </c>
       <c r="F4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G4">
+        <v>2421.2094999999999</v>
+      </c>
+      <c r="H4">
+        <v>49.2057</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>1369.3</v>
+      </c>
+      <c r="N4">
         <v>4105</v>
       </c>
-      <c r="G4">
-        <v>1369.3</v>
-      </c>
-      <c r="H4">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -625,19 +668,28 @@
         <v>222.7</v>
       </c>
       <c r="F5">
+        <v>0.151</v>
+      </c>
+      <c r="G5">
+        <v>4816.2219999999998</v>
+      </c>
+      <c r="H5">
+        <v>69.399000000000001</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>1883.5</v>
+      </c>
+      <c r="N5">
         <v>5373</v>
       </c>
-      <c r="G5">
-        <v>1883.5</v>
-      </c>
-      <c r="H5">
-        <v>0.151</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -654,19 +706,28 @@
         <v>168.42</v>
       </c>
       <c r="F6">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G6">
+        <v>3265.8960000000002</v>
+      </c>
+      <c r="H6">
+        <v>57.148000000000003</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <v>1980.018</v>
+      </c>
+      <c r="N6">
         <v>6449</v>
       </c>
-      <c r="G6">
-        <v>1980.018</v>
-      </c>
-      <c r="H6">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -683,19 +744,28 @@
         <v>212</v>
       </c>
       <c r="F7">
+        <v>0.1845</v>
+      </c>
+      <c r="G7">
+        <v>3619.99</v>
+      </c>
+      <c r="H7">
+        <v>60.165999999999997</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>1014.54</v>
+      </c>
+      <c r="N7">
         <v>2125</v>
       </c>
-      <c r="G7">
-        <v>1014.54</v>
-      </c>
-      <c r="H7">
-        <v>0.1845</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -712,19 +782,28 @@
         <v>219.16409999999999</v>
       </c>
       <c r="F8">
+        <v>0.129</v>
+      </c>
+      <c r="G8">
+        <v>5500.9849999999997</v>
+      </c>
+      <c r="H8">
+        <v>74.168599999999998</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>2635.154</v>
+      </c>
+      <c r="N8">
         <v>6535</v>
       </c>
-      <c r="G8">
-        <v>2635.154</v>
-      </c>
-      <c r="H8">
-        <v>0.129</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -741,19 +820,28 @@
         <v>208.14400000000001</v>
       </c>
       <c r="F9">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G9">
+        <v>4292.2960000000003</v>
+      </c>
+      <c r="H9">
+        <v>65.515000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>1576.52</v>
+      </c>
+      <c r="N9">
         <v>5429</v>
       </c>
-      <c r="G9">
-        <v>1576.52</v>
-      </c>
-      <c r="H9">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -770,19 +858,28 @@
         <v>160.75</v>
       </c>
       <c r="F10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G10">
+        <v>1805.9290000000001</v>
+      </c>
+      <c r="H10">
+        <v>42.496000000000002</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>1414.029</v>
+      </c>
+      <c r="N10">
         <v>3659</v>
       </c>
-      <c r="G10">
-        <v>1414.029</v>
-      </c>
-      <c r="H10">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -799,19 +896,28 @@
         <v>219.56700000000001</v>
       </c>
       <c r="F11">
+        <v>0.157</v>
+      </c>
+      <c r="G11">
+        <v>4397.4970000000003</v>
+      </c>
+      <c r="H11">
+        <v>66.313599999999994</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>1614.598</v>
+      </c>
+      <c r="N11">
         <v>4674</v>
       </c>
-      <c r="G11">
-        <v>1614.598</v>
-      </c>
-      <c r="H11">
-        <v>0.157</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -828,19 +934,28 @@
         <v>164.904</v>
       </c>
       <c r="F12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="G12">
+        <v>2450.3130000000001</v>
+      </c>
+      <c r="H12">
+        <v>49.5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>829.40599999999995</v>
+      </c>
+      <c r="N12">
         <v>4910</v>
       </c>
-      <c r="G12">
-        <v>829.40599999999995</v>
-      </c>
-      <c r="H12">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -857,19 +972,28 @@
         <v>224.10499999999999</v>
       </c>
       <c r="F13">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="G13">
+        <v>5618.0479999999998</v>
+      </c>
+      <c r="H13">
+        <v>74.953000000000003</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <v>1825.85</v>
+      </c>
+      <c r="N13">
         <v>6377</v>
       </c>
-      <c r="G13">
-        <v>1825.85</v>
-      </c>
-      <c r="H13">
-        <v>0.16969999999999999</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -886,19 +1010,28 @@
         <v>243.49</v>
       </c>
       <c r="F14">
+        <v>0.25</v>
+      </c>
+      <c r="G14">
+        <v>4197.9070000000002</v>
+      </c>
+      <c r="H14">
+        <v>64.790999999999997</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>304.73</v>
+      </c>
+      <c r="N14">
         <v>1573</v>
       </c>
-      <c r="G14">
-        <v>304.73</v>
-      </c>
-      <c r="H14">
-        <v>0.25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -915,19 +1048,28 @@
         <v>210.25200000000001</v>
       </c>
       <c r="F15">
+        <v>0.114</v>
+      </c>
+      <c r="G15">
+        <v>2037.806</v>
+      </c>
+      <c r="H15">
+        <v>45.142000000000003</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <v>1101</v>
+      </c>
+      <c r="N15">
         <v>2367</v>
       </c>
-      <c r="G15">
-        <v>1101</v>
-      </c>
-      <c r="H15">
-        <v>0.114</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -944,19 +1086,28 @@
         <v>227.625</v>
       </c>
       <c r="F16">
+        <v>0.2253</v>
+      </c>
+      <c r="G16">
+        <v>4609.0550000000003</v>
+      </c>
+      <c r="H16">
+        <v>67.89</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16">
+        <v>770.93</v>
+      </c>
+      <c r="N16">
         <v>3101</v>
       </c>
-      <c r="G16">
-        <v>770.93</v>
-      </c>
-      <c r="H16">
-        <v>0.2253</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -973,19 +1124,28 @@
         <v>233.14</v>
       </c>
       <c r="F17">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G17">
+        <v>2661.799</v>
+      </c>
+      <c r="H17">
+        <v>51.592599999999997</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17">
+        <v>2205</v>
+      </c>
+      <c r="N17">
         <v>5813</v>
       </c>
-      <c r="G17">
-        <v>2205</v>
-      </c>
-      <c r="H17">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1002,19 +1162,28 @@
         <v>218.33</v>
       </c>
       <c r="F18">
+        <v>0.1406</v>
+      </c>
+      <c r="G18">
+        <v>4582.683</v>
+      </c>
+      <c r="H18">
+        <v>67.695499999999996</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>1627.8989999999999</v>
+      </c>
+      <c r="N18">
         <v>5314</v>
       </c>
-      <c r="G18">
-        <v>1627.8989999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.1406</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1031,19 +1200,31 @@
         <v>194.95930000000001</v>
       </c>
       <c r="F19">
+        <v>0.216</v>
+      </c>
+      <c r="G19">
+        <v>6637.9539999999997</v>
+      </c>
+      <c r="H19">
+        <v>81.472999999999999</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2273.75</v>
+      </c>
+      <c r="N19">
         <v>10921</v>
       </c>
-      <c r="G19">
-        <v>2273.75</v>
-      </c>
-      <c r="H19">
-        <v>0.216</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1060,19 +1241,31 @@
         <v>190.00800000000001</v>
       </c>
       <c r="F20">
+        <v>0.129</v>
+      </c>
+      <c r="G20">
+        <v>1597.8420000000001</v>
+      </c>
+      <c r="H20">
+        <v>39.972999999999999</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>736.35699999999997</v>
+      </c>
+      <c r="N20">
         <v>2315</v>
       </c>
-      <c r="G20">
-        <v>736.35699999999997</v>
-      </c>
-      <c r="H20">
-        <v>0.129</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1089,19 +1282,31 @@
         <v>239.005</v>
       </c>
       <c r="F21">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5502.7964000000002</v>
+      </c>
+      <c r="H21">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1502.8330000000001</v>
+      </c>
+      <c r="N21">
         <v>5410</v>
       </c>
-      <c r="G21">
-        <v>1502.8330000000001</v>
-      </c>
-      <c r="H21">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1118,19 +1323,31 @@
         <v>148.28700000000001</v>
       </c>
       <c r="F22">
+        <v>0.121</v>
+      </c>
+      <c r="G22">
+        <v>1549.902</v>
+      </c>
+      <c r="H22">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>555.05999999999995</v>
+      </c>
+      <c r="N22">
         <v>879</v>
       </c>
-      <c r="G22">
-        <v>555.05999999999995</v>
-      </c>
-      <c r="H22">
-        <v>0.121</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1147,19 +1364,32 @@
         <v>203.303</v>
       </c>
       <c r="F23">
+        <v>0.127</v>
+      </c>
+      <c r="G23">
+        <v>2751.6379999999999</v>
+      </c>
+      <c r="H23">
+        <v>52.456000000000003</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1486.8869999999999</v>
+      </c>
+      <c r="N23">
         <v>3403</v>
-      </c>
-      <c r="G23">
-        <v>1486.8869999999999</v>
-      </c>
-      <c r="H23">
-        <v>0.127</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>